--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>1.324801310034943</v>
+        <v>0.9623985945846414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>1.325042362893598</v>
+        <v>-0.2625025240627394</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>1.325282820799245</v>
+        <v>-2.717991563576632</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>39859</v>
       </c>
       <c r="B7">
-        <v>1.295302013422827</v>
+        <v>-0.8018087606025261</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>39948</v>
       </c>
       <c r="B8">
-        <v>1.298615252103602</v>
+        <v>-2.540735588184205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40040</v>
       </c>
       <c r="B9">
-        <v>1.08574792334359</v>
+        <v>0.4798059474883161</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>40132</v>
       </c>
       <c r="B10">
-        <v>1.093497250080873</v>
+        <v>2.996743291460049</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>40224</v>
       </c>
       <c r="B11">
-        <v>0.8468734727585172</v>
+        <v>1.766782973262963</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>40313</v>
       </c>
       <c r="B12">
-        <v>0.8558739279972656</v>
+        <v>1.792707332192279</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>40405</v>
       </c>
       <c r="B13">
-        <v>0.8749726708661569</v>
+        <v>1.599999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>40497</v>
       </c>
       <c r="B14">
-        <v>0.8785736706433624</v>
+        <v>1.983944815439088</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>40589</v>
       </c>
       <c r="B15">
-        <v>1.299999999999969</v>
+        <v>1.027205282249909</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>40678</v>
       </c>
       <c r="B16">
-        <v>1.599999999999994</v>
+        <v>1.892417316869597</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>40770</v>
       </c>
       <c r="B17">
-        <v>1.799999999999997</v>
+        <v>1.727088565964991</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>40862</v>
       </c>
       <c r="B18">
-        <v>1.800000000000026</v>
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>40954</v>
       </c>
       <c r="B19">
-        <v>1.703562173521391</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>41044</v>
       </c>
       <c r="B20">
-        <v>1.878254467120129</v>
+        <v>1.295244683175738</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41136</v>
       </c>
       <c r="B21">
-        <v>1.966036868385189</v>
+        <v>0.5000000000000142</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41228</v>
       </c>
       <c r="B22">
-        <v>2.006045911410865</v>
+        <v>-0.1007444012410019</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41320</v>
       </c>
       <c r="B23">
-        <v>1.600005087957896</v>
+        <v>0.399975276622385</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41409</v>
       </c>
       <c r="B24">
-        <v>1.599999542254579</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41501</v>
       </c>
       <c r="B25">
-        <v>1.299997956283505</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41593</v>
       </c>
       <c r="B26">
-        <v>1.299998938007363</v>
+        <v>1.292635181922734</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41685</v>
       </c>
       <c r="B27">
-        <v>1.5</v>
+        <v>1.682020243440505</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41774</v>
       </c>
       <c r="B28">
-        <v>1.6</v>
+        <v>1.012497979540356</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41866</v>
       </c>
       <c r="B29">
-        <v>1.7</v>
+        <v>1.634557118349079</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41958</v>
       </c>
       <c r="B30">
-        <v>1.8</v>
+        <v>0.8971548841028039</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42050</v>
       </c>
       <c r="B31">
-        <v>1.707900952539077</v>
+        <v>1.102490924221428</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42139</v>
       </c>
       <c r="B32">
-        <v>1.700581654411451</v>
+        <v>0.9984536597660991</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42231</v>
       </c>
       <c r="B33">
-        <v>1.758637329982406</v>
+        <v>1.495216092286043</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42323</v>
       </c>
       <c r="B34">
-        <v>1.761065183524281</v>
+        <v>1.345302727311861</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42415</v>
       </c>
       <c r="B35">
-        <v>1.43406346513153</v>
+        <v>1.428495556385869</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42505</v>
       </c>
       <c r="B36">
-        <v>1.394827935964926</v>
+        <v>0.7394362573787987</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42597</v>
       </c>
       <c r="B37">
-        <v>1.297983098294097</v>
+        <v>1.299999999999983</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42689</v>
       </c>
       <c r="B38">
-        <v>1.298079628333952</v>
+        <v>1.233394657233262</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42781</v>
       </c>
       <c r="B39">
-        <v>1.244206465169853</v>
+        <v>1.297884859680252</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42870</v>
       </c>
       <c r="B40">
-        <v>1.213269603306941</v>
+        <v>1.637264503497377</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42962</v>
       </c>
       <c r="B41">
-        <v>1.174392625558269</v>
+        <v>1.331979115623398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43054</v>
       </c>
       <c r="B42">
-        <v>1.11999999999999</v>
+        <v>1.795921598270084</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43146</v>
       </c>
       <c r="B43">
-        <v>1.20000998998195</v>
+        <v>1.327129713066284</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43235</v>
       </c>
       <c r="B44">
-        <v>1.200000000000003</v>
+        <v>1.15883627336575</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43327</v>
       </c>
       <c r="B45">
-        <v>1.200000000000003</v>
+        <v>1.076058203620576</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43419</v>
       </c>
       <c r="B46">
-        <v>1.19999999999996</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>1.217677114878327</v>
+        <v>2.40590956953757</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43600</v>
       </c>
       <c r="B48">
-        <v>1.217388890890092</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43692</v>
       </c>
       <c r="B49">
-        <v>1.217426712276051</v>
+        <v>0.8963263664365542</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43784</v>
       </c>
       <c r="B50">
-        <v>1.217464501955263</v>
+        <v>1.055400706275506</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43876</v>
       </c>
       <c r="B51">
-        <v>0.8964806844506086</v>
+        <v>-0.4303992348575321</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43966</v>
       </c>
       <c r="B52">
-        <v>0.8969416744211145</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44058</v>
       </c>
       <c r="B53">
-        <v>0.897045239457924</v>
+        <v>7.96955251685678</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44150</v>
       </c>
       <c r="B54">
-        <v>0.8971486565941547</v>
+        <v>2.117788110998191</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44242</v>
       </c>
       <c r="B55">
-        <v>0.8997408759775709</v>
+        <v>-0.9861240056009706</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44331</v>
       </c>
       <c r="B56">
-        <v>0.9000000000000057</v>
+        <v>2.876944405321424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44423</v>
       </c>
       <c r="B57">
-        <v>0.8999999999999631</v>
+        <v>0.4364757668776207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44515</v>
       </c>
       <c r="B58">
-        <v>0.8999999999999915</v>
+        <v>0.6542354095451515</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44607</v>
       </c>
       <c r="B59">
-        <v>1.102489650700704</v>
+        <v>-1.358640149334988</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44696</v>
       </c>
       <c r="B60">
-        <v>1.045803247682485</v>
+        <v>1.767346889326234</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44788</v>
       </c>
       <c r="B61">
-        <v>0.9000000000000057</v>
+        <v>0.1973819540654631</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44880</v>
       </c>
       <c r="B62">
-        <v>0.8999999999999631</v>
+        <v>-2.016521230865749</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44972</v>
       </c>
       <c r="B63">
-        <v>0.8935695826017991</v>
+        <v>-1.429923541452922</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>45061</v>
       </c>
       <c r="B64">
-        <v>0.8999999999999915</v>
+        <v>0.1801827438520291</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>45153</v>
       </c>
       <c r="B65">
-        <v>0.8999999999999915</v>
+        <v>0.6692453970872521</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>45245</v>
       </c>
       <c r="B66">
-        <v>0.8999999999999915</v>
+        <v>-1.33243152085096</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>45337</v>
       </c>
       <c r="B67">
-        <v>1.441124882742528</v>
+        <v>-0.09168777270478756</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>45427</v>
       </c>
       <c r="B68">
-        <v>1.022281840489072</v>
+        <v>0.8481739611978583</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45519</v>
       </c>
       <c r="B69">
-        <v>1.022298982287893</v>
+        <v>-0.2604183589432552</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>45611</v>
       </c>
       <c r="B70">
-        <v>1.022316133487493</v>
+        <v>0.3093370292089048</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>45703</v>
       </c>
       <c r="B71">
-        <v>0.9542554236588785</v>
+        <v>-0.03180050048325711</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>45792</v>
       </c>
       <c r="B72">
-        <v>0.952430630112417</v>
+        <v>0.04735640278761366</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,79 +970,7 @@
         <v>45884</v>
       </c>
       <c r="B73">
-        <v>0.9525072717049454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B74">
-        <v>0.9525839854089355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B75">
-        <v>0.7225176544849035</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>46157</v>
-      </c>
-      <c r="B76">
-        <v>0.6931904332439558</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>46249</v>
-      </c>
-      <c r="B77">
-        <v>0.6245091109453114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>46341</v>
-      </c>
-      <c r="B78">
-        <v>0.5560624917002883</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>46433</v>
-      </c>
-      <c r="B79">
-        <v>0.2265277852829399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>46522</v>
-      </c>
-      <c r="B80">
-        <v>0.2256805165144868</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>46614</v>
-      </c>
-      <c r="B81">
-        <v>0.2945183797551323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>46706</v>
-      </c>
-      <c r="B82">
-        <v>0.2947120273256303</v>
+        <v>0.2461857363876589</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,578 +399,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>1.564940711320844</v>
+        <v>-1.781652582373326</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39493</v>
+        <v>39583</v>
       </c>
       <c r="B3">
-        <v>1.162075383241174</v>
+        <v>3.488038255381227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B4">
-        <v>0.9623985945846414</v>
+        <v>-1.392382908151674</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39675</v>
+        <v>39948</v>
       </c>
       <c r="B5">
-        <v>-0.2625025240627394</v>
+        <v>-5.35640370103539</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>39767</v>
+        <v>40130</v>
       </c>
       <c r="B6">
-        <v>-2.717991563576632</v>
+        <v>-5.410562843974105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>39859</v>
+        <v>40310</v>
       </c>
       <c r="B7">
-        <v>-0.8018087606025261</v>
+        <v>-1.616494377065351</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>39948</v>
+        <v>40494</v>
       </c>
       <c r="B8">
-        <v>-2.540735588184205</v>
+        <v>7.771920357185309</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40040</v>
+        <v>40676</v>
       </c>
       <c r="B9">
-        <v>0.4798059474883161</v>
+        <v>0.796738168115894</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B10">
-        <v>2.996743291460049</v>
+        <v>2.64337718803263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>40224</v>
+        <v>41044</v>
       </c>
       <c r="B11">
-        <v>1.766782973262963</v>
+        <v>0.02227176351210858</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>40313</v>
+        <v>41228</v>
       </c>
       <c r="B12">
-        <v>1.792707332192279</v>
+        <v>1.043875137114455</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>40405</v>
+        <v>41409</v>
       </c>
       <c r="B13">
-        <v>1.599999999999994</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>40497</v>
+        <v>41592</v>
       </c>
       <c r="B14">
-        <v>1.983944815439088</v>
+        <v>1.933078912701916</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>40589</v>
+        <v>41774</v>
       </c>
       <c r="B15">
-        <v>1.027205282249909</v>
+        <v>2.2085072997628</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>40678</v>
+        <v>41957</v>
       </c>
       <c r="B16">
-        <v>1.892417316869597</v>
+        <v>1.119204613350774</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40770</v>
+        <v>42137</v>
       </c>
       <c r="B17">
-        <v>1.727088565964991</v>
+        <v>1.857496130824472</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>0.4000000000000057</v>
+        <v>0.4869808267284412</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40954</v>
+        <v>42503</v>
       </c>
       <c r="B19">
-        <v>0.5999999999999943</v>
+        <v>0.5201842158159025</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41044</v>
+        <v>42689</v>
       </c>
       <c r="B20">
-        <v>1.295244683175738</v>
+        <v>0.1611306858251567</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41136</v>
+        <v>42867</v>
       </c>
       <c r="B21">
-        <v>0.5000000000000142</v>
+        <v>2.489390679284554</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41228</v>
+        <v>43053</v>
       </c>
       <c r="B22">
-        <v>-0.1007444012410019</v>
+        <v>2.396748302637434</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41320</v>
+        <v>43145</v>
       </c>
       <c r="B23">
-        <v>0.399975276622385</v>
+        <v>1.135504690718705</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41409</v>
+        <v>43235</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>-1.095080621818852</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41501</v>
+        <v>43326</v>
       </c>
       <c r="B25">
-        <v>1.1</v>
+        <v>-0.2086508492230905</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41593</v>
+        <v>43418</v>
       </c>
       <c r="B26">
-        <v>1.292635181922734</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41685</v>
+        <v>43510</v>
       </c>
       <c r="B27">
-        <v>1.682020243440505</v>
+        <v>1.259396972217104</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41774</v>
+        <v>43600</v>
       </c>
       <c r="B28">
-        <v>1.012497979540356</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41866</v>
+        <v>43691</v>
       </c>
       <c r="B29">
-        <v>1.634557118349079</v>
+        <v>0.9421680172377194</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41958</v>
+        <v>43783</v>
       </c>
       <c r="B30">
-        <v>0.8971548841028039</v>
+        <v>-0.1029062604420545</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42050</v>
+        <v>43875</v>
       </c>
       <c r="B31">
-        <v>1.102490924221428</v>
+        <v>-0.3621029329022321</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42139</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>0.9984536597660991</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42231</v>
+        <v>44068</v>
       </c>
       <c r="B33">
-        <v>1.495216092286043</v>
+        <v>-16.02569689670956</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42323</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>1.345302727311861</v>
+        <v>9.059011788180499</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42415</v>
+        <v>44251</v>
       </c>
       <c r="B35">
-        <v>1.428495556385869</v>
+        <v>3.706510317809929</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42505</v>
+        <v>44341</v>
       </c>
       <c r="B36">
-        <v>0.7394362573787987</v>
+        <v>3.812938874122935</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42597</v>
+        <v>44432</v>
       </c>
       <c r="B37">
-        <v>1.299999999999983</v>
+        <v>2.06422287650885</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42689</v>
+        <v>44525</v>
       </c>
       <c r="B38">
-        <v>1.233394657233262</v>
+        <v>-0.5616043219123981</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42781</v>
+        <v>44617</v>
       </c>
       <c r="B39">
-        <v>1.297884859680252</v>
+        <v>5.081974971976663</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42870</v>
+        <v>44706</v>
       </c>
       <c r="B40">
-        <v>1.637264503497377</v>
+        <v>0.9282314708180905</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42962</v>
+        <v>44798</v>
       </c>
       <c r="B41">
-        <v>1.331979115623398</v>
+        <v>1.594077990749781</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43054</v>
+        <v>44890</v>
       </c>
       <c r="B42">
-        <v>1.795921598270084</v>
+        <v>2.351141586996604</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43146</v>
+        <v>44981</v>
       </c>
       <c r="B43">
-        <v>1.327129713066284</v>
+        <v>-1.338086018914467</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43235</v>
+        <v>45071</v>
       </c>
       <c r="B44">
-        <v>1.15883627336575</v>
+        <v>-0.9048896879718455</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43327</v>
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>1.076058203620576</v>
+        <v>-0.008074312324168886</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43419</v>
+        <v>45254</v>
       </c>
       <c r="B46">
-        <v>0.3</v>
+        <v>-1.274764871858835</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43511</v>
+        <v>45345</v>
       </c>
       <c r="B47">
-        <v>2.40590956953757</v>
+        <v>-1.68178591590852</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43600</v>
+        <v>45436</v>
       </c>
       <c r="B48">
-        <v>-0.4</v>
+        <v>0.6150207087151358</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43692</v>
+        <v>45534</v>
       </c>
       <c r="B49">
-        <v>0.8963263664365542</v>
+        <v>0.0262228489182661</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43784</v>
+        <v>45618</v>
       </c>
       <c r="B50">
-        <v>1.055400706275506</v>
+        <v>0.1551023335685926</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43876</v>
+        <v>45713</v>
       </c>
       <c r="B51">
-        <v>-0.4303992348575321</v>
+        <v>0.547850509038426</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43966</v>
+        <v>45800</v>
       </c>
       <c r="B52">
-        <v>-14.5</v>
+        <v>1.074806962785573</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44058</v>
+        <v>45891</v>
       </c>
       <c r="B53">
-        <v>7.96955251685678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B54">
-        <v>2.117788110998191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B55">
-        <v>-0.9861240056009706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B56">
-        <v>2.876944405321424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B57">
-        <v>0.4364757668776207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B58">
-        <v>0.6542354095451515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B59">
-        <v>-1.358640149334988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B60">
-        <v>1.767346889326234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B61">
-        <v>0.1973819540654631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B62">
-        <v>-2.016521230865749</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B63">
-        <v>-1.429923541452922</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B64">
-        <v>0.1801827438520291</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B65">
-        <v>0.6692453970872521</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B66">
-        <v>-1.33243152085096</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>45337</v>
-      </c>
-      <c r="B67">
-        <v>-0.09168777270478756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>45427</v>
-      </c>
-      <c r="B68">
-        <v>0.8481739611978583</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>45519</v>
-      </c>
-      <c r="B69">
-        <v>-0.2604183589432552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>45611</v>
-      </c>
-      <c r="B70">
-        <v>0.3093370292089048</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B71">
-        <v>-0.03180050048325711</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B72">
-        <v>0.04735640278761366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B73">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>value</t>
+    <t>first_release_value</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,418 +399,666 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>38398</v>
       </c>
       <c r="B2">
-        <v>-1.781652582373326</v>
+        <v>-1.480585662758955</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>38487</v>
       </c>
       <c r="B3">
-        <v>3.488038255381227</v>
+        <v>4.695917448367524</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>38579</v>
       </c>
       <c r="B4">
-        <v>-1.392382908151674</v>
+        <v>3.170055072151484</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>38671</v>
       </c>
       <c r="B5">
-        <v>-5.35640370103539</v>
+        <v>2.606847295028047</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>38763</v>
       </c>
       <c r="B6">
-        <v>-5.410562843974105</v>
+        <v>3.777024304539765</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>38852</v>
       </c>
       <c r="B7">
-        <v>-1.616494377065351</v>
+        <v>0.7137374907328251</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>38944</v>
       </c>
       <c r="B8">
-        <v>7.771920357185309</v>
+        <v>3.543396901532475</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>39036</v>
       </c>
       <c r="B9">
-        <v>0.796738168115894</v>
+        <v>1.324703771913761</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>39128</v>
       </c>
       <c r="B10">
-        <v>2.64337718803263</v>
+        <v>2.324224946277042</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>39217</v>
       </c>
       <c r="B11">
-        <v>0.02227176351210858</v>
+        <v>-1.781652582373326</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>39309</v>
       </c>
       <c r="B12">
-        <v>1.043875137114455</v>
+        <v>3.94593981855364</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>39401</v>
       </c>
       <c r="B13">
-        <v>-2.1</v>
+        <v>0.2255418731353984</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>39493</v>
       </c>
       <c r="B14">
-        <v>1.933078912701916</v>
+        <v>3.488038255381227</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>39583</v>
       </c>
       <c r="B15">
-        <v>2.2085072997628</v>
+        <v>-1.392382908151674</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>39675</v>
       </c>
       <c r="B16">
-        <v>1.119204613350774</v>
+        <v>3.815959839717081</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>39767</v>
       </c>
       <c r="B17">
-        <v>1.857496130824472</v>
+        <v>-4.107770248796484</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>39859</v>
       </c>
       <c r="B18">
-        <v>0.4869808267284412</v>
+        <v>-5.35640370103539</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>39948</v>
       </c>
       <c r="B19">
-        <v>0.5201842158159025</v>
+        <v>-5.410562843974105</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>40040</v>
       </c>
       <c r="B20">
-        <v>0.1611306858251567</v>
+        <v>4.973955294124409</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>40132</v>
       </c>
       <c r="B21">
-        <v>2.489390679284554</v>
+        <v>-1.616494377065351</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>40224</v>
       </c>
       <c r="B22">
-        <v>2.396748302637434</v>
+        <v>6.089842363966454</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>40313</v>
       </c>
       <c r="B23">
-        <v>1.135504690718705</v>
+        <v>7.771920357185309</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>40405</v>
       </c>
       <c r="B24">
-        <v>-1.095080621818852</v>
+        <v>1.933642100495049</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>40497</v>
       </c>
       <c r="B25">
-        <v>-0.2086508492230905</v>
+        <v>0.796738168115894</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>40589</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>1.463284815360069</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>40678</v>
       </c>
       <c r="B27">
-        <v>1.259396972217104</v>
+        <v>2.891754278273439</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>40770</v>
       </c>
       <c r="B28">
-        <v>0.7</v>
+        <v>2.64337718803263</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>0.9421680172377194</v>
+        <v>-0.7880943707230443</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>40954</v>
       </c>
       <c r="B30">
-        <v>-0.1029062604420545</v>
+        <v>0.02227176351210858</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>41044</v>
       </c>
       <c r="B31">
-        <v>-0.3621029329022321</v>
+        <v>2.238969365349575</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>41136</v>
       </c>
       <c r="B32">
-        <v>-1.6</v>
+        <v>1.043875137114455</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>41228</v>
       </c>
       <c r="B33">
-        <v>-16.02569689670956</v>
+        <v>-1.312661112537128</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>41320</v>
       </c>
       <c r="B34">
-        <v>9.059011788180499</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>41409</v>
       </c>
       <c r="B35">
-        <v>3.706510317809929</v>
+        <v>1.933078912701916</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>41501</v>
       </c>
       <c r="B36">
-        <v>3.812938874122935</v>
+        <v>0.8117228711496978</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>41593</v>
       </c>
       <c r="B37">
-        <v>2.06422287650885</v>
+        <v>1.285328021680314</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>41685</v>
       </c>
       <c r="B38">
-        <v>-0.5616043219123981</v>
+        <v>2.2085072997628</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>41774</v>
       </c>
       <c r="B39">
-        <v>5.081974971976663</v>
+        <v>1.119204613350774</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>41866</v>
       </c>
       <c r="B40">
-        <v>0.9282314708180905</v>
+        <v>1.677790477509291</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>41958</v>
       </c>
       <c r="B41">
-        <v>1.594077990749781</v>
+        <v>1.857496130824472</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>42050</v>
       </c>
       <c r="B42">
-        <v>2.351141586996604</v>
+        <v>1.464045137806849</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>42139</v>
       </c>
       <c r="B43">
-        <v>-1.338086018914467</v>
+        <v>0.4869808267284412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>42231</v>
       </c>
       <c r="B44">
-        <v>-0.9048896879718455</v>
+        <v>1.144719845809078</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>42323</v>
       </c>
       <c r="B45">
-        <v>-0.008074312324168886</v>
+        <v>0.5201842158159025</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>42415</v>
       </c>
       <c r="B46">
-        <v>-1.274764871858835</v>
+        <v>1.396417402226163</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>42505</v>
       </c>
       <c r="B47">
-        <v>-1.68178591590852</v>
+        <v>0.09677264461834056</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>42597</v>
       </c>
       <c r="B48">
-        <v>0.6150207087151358</v>
+        <v>0.1611306858251567</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>42689</v>
       </c>
       <c r="B49">
-        <v>0.0262228489182661</v>
+        <v>2.489390679284554</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>42781</v>
       </c>
       <c r="B50">
-        <v>0.1551023335685926</v>
+        <v>0.3983205376114825</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>42870</v>
       </c>
       <c r="B51">
-        <v>0.547850509038426</v>
+        <v>2.396748302637434</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>42962</v>
       </c>
       <c r="B52">
-        <v>1.074806962785573</v>
+        <v>0.8920379051669016</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45891</v>
+        <v>43054</v>
       </c>
       <c r="B53">
-        <v>1.642262942687253</v>
+        <v>1.989289785701104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B54">
+        <v>-1.095080621818852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B55">
+        <v>1.709973952921786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B57">
+        <v>0.7345957212796748</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B58">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B59">
+        <v>-0.2740143521242828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B60">
+        <v>0.06866907528606703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B61">
+        <v>1.271957369209446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B62">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B63">
+        <v>-16.02569689670956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B64">
+        <v>7.96955251685678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B65">
+        <v>2.117788110998191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B66">
+        <v>-0.9861240056009706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B67">
+        <v>2.876944405321424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B68">
+        <v>0.4364757668776207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B69">
+        <v>0.6542354095451515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B70">
+        <v>-1.358640149334988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B71">
+        <v>1.767346889326234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B72">
+        <v>0.1973819540654631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B73">
+        <v>-2.016521230865749</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B74">
+        <v>-1.429923541452922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B75">
+        <v>0.1801827438520291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B76">
+        <v>0.6692453970872521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B77">
+        <v>-1.33243152085096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B78">
+        <v>-0.09168777270478756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B79">
+        <v>0.8481739611978583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B80">
+        <v>-0.2604183589432552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B81">
+        <v>0.3093370292089048</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B82">
+        <v>-0.03180050048325711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B83">
+        <v>0.04735640278761366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0.2461857363876589</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>7.96955251685678</v>
+        <v>9.059011788180499</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>2.117788110998191</v>
+        <v>3.706510317809929</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>-0.9861240056009706</v>
+        <v>3.812938874122935</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44331</v>
       </c>
       <c r="B67">
-        <v>2.876944405321424</v>
+        <v>2.06422287650885</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44423</v>
       </c>
       <c r="B68">
-        <v>0.4364757668776207</v>
+        <v>-0.5616043219123981</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>0.6542354095451515</v>
+        <v>5.081974971976663</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>-1.358640149334988</v>
+        <v>0.9282314708180905</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44696</v>
       </c>
       <c r="B71">
-        <v>1.767346889326234</v>
+        <v>1.594077990749781</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44788</v>
       </c>
       <c r="B72">
-        <v>0.1973819540654631</v>
+        <v>2.351141586996604</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>-2.016521230865749</v>
+        <v>-1.338086018914467</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44972</v>
       </c>
       <c r="B74">
-        <v>-1.429923541452922</v>
+        <v>-0.9048896879718455</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>45061</v>
       </c>
       <c r="B75">
-        <v>0.1801827438520291</v>
+        <v>-0.008074312324168886</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>45153</v>
       </c>
       <c r="B76">
-        <v>0.6692453970872521</v>
+        <v>-1.274764871858835</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>-1.33243152085096</v>
+        <v>-1.68178591590852</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>-0.09168777270478756</v>
+        <v>0.6150207087151358</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>0.8481739611978583</v>
+        <v>0.0262228489182661</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>-0.2604183589432552</v>
+        <v>0.1551023335685926</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>45611</v>
       </c>
       <c r="B81">
-        <v>0.3093370292089048</v>
+        <v>0.547850509038426</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>-0.03180050048325711</v>
+        <v>1.074806962785573</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,15 +1050,7 @@
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>0.04735640278761366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B84">
-        <v>0.2461857363876589</v>
+        <v>1.642262942687253</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_IMPORT.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1053,14 @@
         <v>1.642262942687253</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0.03331000006224372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
